--- a/biology/Médecine/Niels_Ryberg_Finsen/Niels_Ryberg_Finsen.xlsx
+++ b/biology/Médecine/Niels_Ryberg_Finsen/Niels_Ryberg_Finsen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Niels Ryberg Finsen (né le 15 décembre 1860 à Tórshavn, Îles Féroé, Danemark et mort le 24 septembre 1904 à Copenhague), est un médecin danois, lauréat en 1903 du prix Nobel de physiologie ou médecine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Niels Ryberg Finsen (né le 15 décembre 1860 à Tórshavn, Îles Féroé, Danemark et mort le 24 septembre 1904 à Copenhague), est un médecin danois, lauréat en 1903 du prix Nobel de physiologie ou médecine.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1903, il est lauréat du prix Nobel de physiologie ou médecine « en reconnaissance de sa contribution au traitement des maladies, particulièrement le lupus vulgaris par une concentration de radiations lumineuses, ouvrant ainsi une nouvelle voie à la science médicale[1] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1903, il est lauréat du prix Nobel de physiologie ou médecine « en reconnaissance de sa contribution au traitement des maladies, particulièrement le lupus vulgaris par une concentration de radiations lumineuses, ouvrant ainsi une nouvelle voie à la science médicale ».
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jørgen Lyngbye, Lyssagen : Niels Finsen og hans team på Finseninstituttet, Gyldendal, 2003  (ISBN 87-00-30974-5)
 Anker Aggebo, Niels Finsen : 15. December 1860-24. September 1904 : en Saga om Daad, Nyt Nordisk Forlag, 1960</t>
